--- a/docs/quizsheets/m3_mada_coding_basics_student.xlsx
+++ b/docs/quizsheets/m3_mada_coding_basics_student.xlsx
@@ -407,11 +407,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>quiz3q2</t>
@@ -429,11 +424,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>quiz3q3</t>
@@ -451,11 +441,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>quiz3q4</t>
@@ -473,11 +458,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>quiz3q5</t>
@@ -495,11 +475,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>quiz3q6</t>
@@ -517,11 +492,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>quiz3q7</t>
@@ -539,11 +509,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>quiz3q8</t>
@@ -561,11 +526,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>quiz3q9</t>
@@ -583,11 +543,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>quiz3q10</t>
@@ -605,11 +560,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>quiz3q11</t>
@@ -627,11 +577,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>quiz3q12</t>
@@ -649,11 +594,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>quiz3q13</t>
@@ -671,11 +611,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>quiz3q14</t>
@@ -693,11 +628,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>m3_mada_coding_basics</t>
-        </is>
-      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>quiz3q15</t>

--- a/docs/quizsheets/m3_mada_coding_basics_student.xlsx
+++ b/docs/quizsheets/m3_mada_coding_basics_student.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What is the name of the  Posit/R Studio resource that has great beginner tutorials? A) TutoR, B) LearnR, C) Cheatsheets, D) Primer</t>
+          <t>The R package forcats gives you functionality for what kind of topic. A) writing for-loops, B) managing your cat videos, C) forking github repositories  D) working with factors.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -431,7 +431,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The R package forcats gives you functionality for what kind of topic. A) writing for-loops, B) managing your cat videos, C) forking github repositories  D) working with factors.</t>
+          <t>Which of these is NOT a core tidyverse package? A) dplyr, B) broom, C) tibble, D) stringr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -448,12 +448,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Which of these is NOT a core tidyverse package? A) dplyr, B) broom, C) tibble, D) forcats</t>
+          <t>If you ask for coding help online, you might get some unfriendly feedback if you do not provide a minimal reproducible example.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Report just the letter</t>
+          <t>Report True or False.</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>If you ask for coding help online, you might get some unfriendly feedback if you do not provide a minimal reproducible example.</t>
+          <t>The main idea behind tidy data is that each variable is well documented in a codebook.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -482,12 +482,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The main idea behind tidy data is that each variable is well documented in a codebook.</t>
+          <t>Which of these is NOT an atomic data type in R? A) simple, B) integer, C) complex, D) logical.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Report True or False.</t>
+          <t>Report just the letter</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Which of these is NOT an atomic data type in R? A) simple, B) integer, C) raw, D) logical.</t>
+          <t>Which of these would be a valid variable/object name?  A) 1 , B) 1st, C) today, D) id#2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Which of these would be a valid variable/object name?  A) 1 , B) 1st, C) today, D) id#2</t>
+          <t>If you create a vector in R that starts at 6 and goes to 54 in increments of 4/7, how many elements are in this vector?</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Report just the letter</t>
+          <t>Report the number</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>If you create a vector in R that starts at 6 and goes to 54 in increments of 4/7, how many elements are in this vector?</t>
+          <t>If you use the function str_wrap from the stringr package with setting "width=5" and apply it to the string "MADA rocks", what do you get back? A) "MADA\nrocks", B) "MADA rocks", C) "MADA ", D) c("MADA","rocks")</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Report the number</t>
+          <t>Report just the letter</t>
         </is>
       </c>
     </row>
@@ -550,12 +550,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>If you use the function str_wrap from the stringr package with setting "width=5" and apply it to the string "MADA rocks", what do you get back? A) "MADA\nrocks", B) "MADA rocks", C) "MADA ", D) c("MADA","rocks")</t>
+          <t>In the dplyr package, the function select() lets you choose specific ROWS, the function filter() lets you choose specific COLUMNS.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Report just the letter</t>
+          <t>Report True or False.</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>In the dplyr package, the function select() lets you choose specific ROWS, the function filter() lets you choose specific COLUMNS.</t>
+          <t>Start a fresh R session, then load the dplyr package. Check the help file for the filter() function by typing help('filter') into R. How many different packages report having a filter function?</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Report True or False.</t>
+          <t>Report the number</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Start a fresh R session, then load the dplyr package. Check the help file for the filter() function by typing help('filter') into R. How many different packages report having a filter function?</t>
+          <t>In the "Factors" chapter in R4DS (2nd edition), they use  fct_lump_lowfreq() to combine the variable relig into fewer categories. How many categories do they end up with?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>In the "Factors" chapter in R4DS (1st edition), they use  fct_lump() with DEFAULT settings to combine the religion variable into fewer categories. How many categories do they end up with?</t>
+          <t>The R package "babynames" contains names of babies born in the US. The following command will give you for each year all baby names that occur more than 10 and less than 20 times: dplyr::filter(babynames, 10 &lt; n &lt; 20)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Report the number</t>
+          <t>Report True or False.</t>
         </is>
       </c>
     </row>
@@ -618,27 +618,10 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The R package "babynames" contains names of babies born in the US. The following command will give you for each year all baby names that occur more than 10 and less than 20 times: dplyr::filter(babynames, 10 &lt; n &lt; 20)</t>
+          <t>If you have 2 dataframes (called here df1 and df2)  that you want to combine using an "id" variable, which of the following commands will ensure that all of the information in df1 is in the new dataframe? A) left_join(df2, df1, by = "id"), B) full_join(df2, df1, by = "id"), C) right_join(df1, df2, by = "id"), D) inner_join(df2, df1, by = "id").</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>Report True or False.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>quiz3q15</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>If you have 2 dataframes (called here df1 and df2)  that you want to combine using an "id" variable, which of the following commands will ensure that all of the information in df1 is in the new dataframe? A) left_join(df2, df1, by = "id"), B) full_join(df2, df1, by = "id"), C) right_join(df1, df2, by = "id"), D) inner_join(df2, df1, by = "id").</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>Report just the letter</t>
         </is>
